--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-502431.4483876987</v>
+        <v>-505068.404005222</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>278.9560426501769</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>137.142121390466</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>20.59058898554159</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>136.5103572066342</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>131.8870946824031</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>71.40870149167978</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>136.4460815371548</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>66.40055121331423</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>286.5888679426066</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>72.79557851118258</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>85.45564210299004</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.9397183577605</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>172.026033500079</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>224.8341963325692</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>47.33239976701595</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>53.76947475493767</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>35.4177059712714</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238239</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>130.732365546955</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>149.2351784782017</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261735</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545294</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1500.22751757712</v>
+        <v>1148.907795281707</v>
       </c>
       <c r="C2" t="n">
-        <v>1500.22751757712</v>
+        <v>779.9452783412949</v>
       </c>
       <c r="D2" t="n">
-        <v>1500.22751757712</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="E2" t="n">
-        <v>1114.439264978876</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F2" t="n">
-        <v>703.4533601892686</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4328,16 +4328,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>2299.11272558272</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.22751757712</v>
+        <v>2299.11272558272</v>
       </c>
       <c r="X2" t="n">
-        <v>1500.22751757712</v>
+        <v>1925.64696732164</v>
       </c>
       <c r="Y2" t="n">
-        <v>1500.22751757712</v>
+        <v>1535.507635345828</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145195</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380223</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694941</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>772.8067472977393</v>
+        <v>643.4886826182739</v>
       </c>
       <c r="C4" t="n">
-        <v>603.8705643698324</v>
+        <v>474.552499690367</v>
       </c>
       <c r="D4" t="n">
         <v>453.7539249574967</v>
@@ -4480,58 +4480,58 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1498.556870370827</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1498.556870370827</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1243.87238216494</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W4" t="n">
-        <v>954.4552121279791</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="X4" t="n">
-        <v>954.4552121279791</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="Y4" t="n">
-        <v>954.4552121279791</v>
+        <v>825.1371474485136</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1346.511635257854</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="C5" t="n">
-        <v>977.549118317442</v>
+        <v>1653.568282721998</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>1295.302584115247</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>909.5143315170028</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4565,25 +4565,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583055</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X5" t="n">
-        <v>1733.111475321975</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="Y5" t="n">
-        <v>1733.111475321975</v>
+        <v>2022.530799662409</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,40 +4632,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735143</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049862</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2561.393271046731</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>486.0776982632541</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C7" t="n">
-        <v>486.0776982632541</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D7" t="n">
-        <v>335.9610588509183</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E7" t="n">
-        <v>335.9610588509183</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>189.071111353008</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234359</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="V7" t="n">
-        <v>1185.132884028472</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="W7" t="n">
-        <v>895.7157139915112</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="X7" t="n">
-        <v>667.7261630934938</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.7261630934938</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854573</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450455</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>933.2161775761949</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>547.4279249779506</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>540.4824242287472</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>124.777673953036</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4808,10 +4808,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4884,25 +4884,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>623.0447030767627</v>
       </c>
       <c r="C10" t="n">
-        <v>837.0793422748035</v>
+        <v>454.1085201488559</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624677</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800746</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821642</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386097</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1133.254452257253</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>843.8372822202929</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>843.8372822202929</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>623.0447030767627</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2273.199413378161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>450.5350983060615</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5467,19 +5467,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>2106.003314093041</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5507,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048626</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925269</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101338</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741517</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704557</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806539</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630092</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,16 +6601,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7126,16 +7126,16 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
         <v>753.3092412490405</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,28 +7193,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7312,22 +7312,22 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,25 +7546,25 @@
         <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,25 +7810,25 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.9531451156648</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566488</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>21.89339468985682</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>217.0937707114905</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>132.5916601227771</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>102.0626574777209</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>190.6101370796689</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>9.000252501565598</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>61.35027805667494</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.308789375334018e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>98.0886482559153</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>232.4149996343065</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>110.0033420516598</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>137.2878198583893</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-5.562217481057792e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1016379.805245518</v>
+        <v>1016379.805245519</v>
       </c>
     </row>
     <row r="3">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758984</v>
+        <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058919</v>
       </c>
       <c r="E2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="K2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058923</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65562.12618427615</v>
+        <v>65562.12618427639</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707386</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707365</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670735</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707374</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980089</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="O4" t="n">
         <v>14888.28375980085</v>
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984472</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1044192.038424142</v>
+        <v>-1044482.645588988</v>
       </c>
       <c r="C6" t="n">
-        <v>41991.07593442232</v>
+        <v>41991.07593442244</v>
       </c>
       <c r="D6" t="n">
-        <v>41991.07593442245</v>
+        <v>41991.07593442207</v>
       </c>
       <c r="E6" t="n">
-        <v>-353182.7510459087</v>
+        <v>-353217.488971344</v>
       </c>
       <c r="F6" t="n">
-        <v>154302.6905786375</v>
+        <v>154267.9526532018</v>
       </c>
       <c r="G6" t="n">
-        <v>154302.6905786375</v>
+        <v>154267.9526532017</v>
       </c>
       <c r="H6" t="n">
-        <v>154302.6905786375</v>
+        <v>154267.9526532017</v>
       </c>
       <c r="I6" t="n">
-        <v>154302.6905786375</v>
+        <v>154267.9526532017</v>
       </c>
       <c r="J6" t="n">
-        <v>-13302.48723134487</v>
+        <v>-13337.22515678073</v>
       </c>
       <c r="K6" t="n">
-        <v>154302.6905786375</v>
+        <v>154267.9526532019</v>
       </c>
       <c r="L6" t="n">
-        <v>154302.6905786375</v>
+        <v>154267.9526532018</v>
       </c>
       <c r="M6" t="n">
-        <v>21695.3968497107</v>
+        <v>21660.65892427514</v>
       </c>
       <c r="N6" t="n">
-        <v>129358.4575985443</v>
+        <v>129358.4575985442</v>
       </c>
       <c r="O6" t="n">
         <v>148786.175592176</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26796,13 +26796,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>148.1791210595171</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>104.5955275025129</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>128.0248840326708</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>84.23833879057779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>222.7959469382798</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>335.4673442500317</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>29.86051850764937</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>35.1570212062594</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27831,16 +27831,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>68.0941736780764</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>228.2229740512228</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>80.85095794181414</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28068,13 +28068,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.19792496606752</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338201</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065822</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391972</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.9556134883069083</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35273,7 +35273,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394595</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
